--- a/encoded_data_final.xlsx
+++ b/encoded_data_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG99"/>
+  <dimension ref="A1:AS99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,257 +476,187 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Recommended Action_Confidence</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>Region_Embu</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Region_Garissa</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Region_Kakamega</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Region_Kericho</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Region_Kitale</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Region_Loitoktok</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Region_Machakos</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Region_Moi</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Region_Mombasa</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Region_Nakuru</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Region_Pumwani</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Screening Type Last_HPV DNA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Screening Type Last_PAP SMEAR</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Screening Type Last_VIA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Recommended Action_FOR ANNUAL FOLLOW UP AND PAP SMEAR IN 3 YEARS</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Recommended Action_FOR ANUAL FOLLOW UP AND PAP SMEAR IN 3 YEARS</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Recommended Action_FOR BIOPSY AND CYTOLOGY WITH TAH NOT RECOMMENDED</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Recommended Action_FOR COLOSCOPY BIOSY, CYTOLOGY</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Recommended Action_FOR COLPOSCOPY BIOPSY AND CYTOLOGY+/- TAH</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Recommended Action_FOR COLPOSCOPY BIOPSY, CYTOLOGY</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Recommended Action_FOR COLPOSCOPY BIOPSY, CYTOLOGY +/-TAH</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Recommended Action_FOR COLPOSCOPY BIOSPY, CYTOLOGY</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Recommended Action_FOR COLPOSCOPY BIOSPY, CYTOLOGY +/- TAH</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Recommended Action_FOR COLPOSCOPY BIOSY, CYTOLOGY+/- TAH</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Recommended Action_FOR COLPOSCOPY CYTOLOGY AND BIOPSY</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Recommended Action_FOR COLPOSCPY BIOPSY, CYTOLOGY</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Recommended Action_FOR COLPOSOCPY BIOPSY, CYTOLOGY WITH TAH NOT RECOMMENDED</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Recommended Action_FOR HPV VACCINATION AND SEXUAL EDUCATION</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Recommended Action_FOR HPV VACCINE AND SEXUAL EDUCATION</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Recommended Action_FOR HPV VACCINE, LIFESTYLE AND SEXUAL EDUCATION</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Recommended Action_FOR LASER THERAPY</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Recommended Action_FOR PAP SMEAR</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Recommended Action_FOR REPEAT HPV TESTING ANNUALLY AND PAP SMEAR IN 3 YEARS</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Recommended Action_FORCOLPOSCOPY, CYTOLOGY THEN LASER THERAPY</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Recommended Action_REPEAT PAP SMEAR IN 3 YEARS</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Recommended Action_REPEAT PAP SMEAR IN 3 YEARS AND FOR HPV VACCINE</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Recommended Action_REPEAT PAP SMEAR IN 3YEARS</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>Recommended Action_Cleaned_FOR ANNUAL FOLLOW-UP AND PAP SMEAR IN 3 YEARS</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>Recommended Action_Cleaned_FOR BIOPSY AND CYTOLOGY (TAH NOT RECOMMENDED)</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>Recommended Action_Cleaned_FOR COLPOSCOPY, BIOPSY, AND CYTOLOGY</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Recommended Action_Cleaned_FOR COLPOSCOPY, BIOPSY, CYTOLOGY +/- TAH</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Recommended Action_Cleaned_FOR COLPOSCOPY, CYTOLOGY, THEN LASER THERAPY</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Recommended Action_Cleaned_FOR HPV VACCINE AND SEXUAL EDUCATION</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Recommended Action_Cleaned_FOR HPV VACCINE, LIFESTYLE, AND SEXUAL EDUCATION</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Recommended Action_Cleaned_FOR LASER THERAPY</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Recommended Action_Cleaned_FOR PAP SMEAR</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>Recommended Action_Cleaned_FOR REPEAT HPV TESTING ANNUALLY AND PAP SMEAR IN 3 YEARS</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>Recommended Action_Cleaned_REPEAT PAP SMEAR IN 3 YEARS</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>Recommended Action_Cleaned_REPEAT PAP SMEAR IN 3 YEARS AND FOR HPV VACCINE</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>Recommended Action_Status_OK</t>
         </is>
       </c>
     </row>
@@ -756,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -786,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -861,52 +791,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -935,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -968,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1019,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -1044,48 +932,6 @@
       </c>
       <c r="AS3" t="n">
         <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1114,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -1132,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1147,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1198,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -1223,48 +1069,6 @@
       </c>
       <c r="AS4" t="n">
         <v>0</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1293,10 +1097,10 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1326,10 +1130,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1380,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
@@ -1402,48 +1206,6 @@
       </c>
       <c r="AS5" t="n">
         <v>0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1472,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1496,19 +1258,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1556,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -1581,48 +1343,6 @@
       </c>
       <c r="AS6" t="n">
         <v>0</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1651,10 +1371,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1687,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1756,52 +1476,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1830,10 +1508,10 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1866,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1902,10 +1580,10 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
@@ -1939,48 +1617,6 @@
       </c>
       <c r="AS8" t="n">
         <v>0</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2009,10 +1645,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2045,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -2111,55 +1747,13 @@
         <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -2188,10 +1782,10 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -2224,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -2257,10 +1851,10 @@
         <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -2297,48 +1891,6 @@
       </c>
       <c r="AS10" t="n">
         <v>0</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -2367,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -2394,10 +1946,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -2406,19 +1958,19 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -2476,48 +2028,6 @@
       </c>
       <c r="AS11" t="n">
         <v>0</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -2546,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -2561,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -2585,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -2648,55 +2158,13 @@
         <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -2725,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -2749,19 +2217,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2827,55 +2295,13 @@
         <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
         <v>0</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -2904,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -2922,10 +2348,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -2940,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -2961,10 +2387,10 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -3013,48 +2439,6 @@
       </c>
       <c r="AS14" t="n">
         <v>0</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -3083,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -3104,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -3119,10 +2503,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -3140,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -3192,48 +2576,6 @@
       </c>
       <c r="AS15" t="n">
         <v>0</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -3262,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -3286,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -3298,16 +2640,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -3371,48 +2713,6 @@
       </c>
       <c r="AS16" t="n">
         <v>0</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -3441,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -3462,10 +2762,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -3477,10 +2777,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -3498,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -3550,48 +2850,6 @@
       </c>
       <c r="AS17" t="n">
         <v>0</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -3620,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -3635,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -3659,10 +2917,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -3722,55 +2980,13 @@
         <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS18" t="n">
         <v>0</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -3799,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -3829,19 +3045,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -3901,55 +3117,13 @@
         <v>0</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS19" t="n">
         <v>0</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -3978,10 +3152,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -4017,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -4080,55 +3254,13 @@
         <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS20" t="n">
         <v>0</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -4157,13 +3289,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -4190,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -4266,48 +3398,6 @@
       </c>
       <c r="AS21" t="n">
         <v>0</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -4336,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -4348,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -4375,10 +3465,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -4438,55 +3528,13 @@
         <v>0</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS22" t="n">
         <v>0</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -4515,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -4527,10 +3575,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -4554,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -4617,55 +3665,13 @@
         <v>0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS23" t="n">
         <v>0</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -4694,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -4706,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -4733,10 +3739,10 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -4796,55 +3802,13 @@
         <v>0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS24" t="n">
         <v>0</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -4873,16 +3837,16 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -4906,10 +3870,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -4957,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
@@ -4982,48 +3946,6 @@
       </c>
       <c r="AS25" t="n">
         <v>0</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -5052,7 +3974,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -5073,10 +3995,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -5088,10 +4010,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -5109,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -5161,48 +4083,6 @@
       </c>
       <c r="AS26" t="n">
         <v>0</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -5231,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -5252,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -5267,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -5288,10 +4168,10 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -5340,48 +4220,6 @@
       </c>
       <c r="AS27" t="n">
         <v>0</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG27" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -5410,16 +4248,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -5449,10 +4287,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -5467,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -5519,48 +4357,6 @@
       </c>
       <c r="AS28" t="n">
         <v>0</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG28" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -5589,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -5607,10 +4403,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -5622,19 +4418,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -5698,48 +4494,6 @@
       </c>
       <c r="AS29" t="n">
         <v>0</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG29" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -5768,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -5780,10 +4534,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -5804,10 +4558,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -5870,55 +4624,13 @@
         <v>0</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS30" t="n">
         <v>0</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG30" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -5947,7 +4659,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -5971,10 +4683,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -5986,10 +4698,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -6040,10 +4752,10 @@
         <v>0</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP31" t="n">
         <v>0</v>
@@ -6056,48 +4768,6 @@
       </c>
       <c r="AS31" t="n">
         <v>0</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG31" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -6126,10 +4796,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -6159,19 +4829,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -6235,48 +4905,6 @@
       </c>
       <c r="AS32" t="n">
         <v>0</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG32" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -6305,7 +4933,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -6326,10 +4954,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -6344,10 +4972,10 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -6398,10 +5026,10 @@
         <v>0</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP33" t="n">
         <v>0</v>
@@ -6414,48 +5042,6 @@
       </c>
       <c r="AS33" t="n">
         <v>0</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG33" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -6484,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -6499,10 +5085,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -6517,19 +5103,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -6593,48 +5179,6 @@
       </c>
       <c r="AS34" t="n">
         <v>0</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG34" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -6663,16 +5207,16 @@
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -6699,10 +5243,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -6720,10 +5264,10 @@
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -6772,48 +5316,6 @@
       </c>
       <c r="AS35" t="n">
         <v>0</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG35" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -6842,13 +5344,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -6878,10 +5380,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -6899,10 +5401,10 @@
         <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -6951,48 +5453,6 @@
       </c>
       <c r="AS36" t="n">
         <v>0</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG36" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -7021,7 +5481,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -7030,10 +5490,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -7060,10 +5520,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -7114,10 +5574,10 @@
         <v>0</v>
       </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP37" t="n">
         <v>0</v>
@@ -7130,48 +5590,6 @@
       </c>
       <c r="AS37" t="n">
         <v>0</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC37" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG37" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -7200,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -7209,10 +5627,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -7236,10 +5654,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -7257,10 +5675,10 @@
         <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -7309,48 +5727,6 @@
       </c>
       <c r="AS38" t="n">
         <v>0</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG38" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -7379,7 +5755,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -7397,10 +5773,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -7418,10 +5794,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -7472,10 +5848,10 @@
         <v>0</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" t="n">
         <v>0</v>
@@ -7488,48 +5864,6 @@
       </c>
       <c r="AS39" t="n">
         <v>0</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG39" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -7558,10 +5892,10 @@
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -7591,10 +5925,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -7633,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ40" t="n">
         <v>0</v>
@@ -7667,48 +6001,6 @@
       </c>
       <c r="AS40" t="n">
         <v>0</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG40" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -7737,13 +6029,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -7776,10 +6068,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -7830,10 +6122,10 @@
         <v>0</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP41" t="n">
         <v>0</v>
@@ -7846,48 +6138,6 @@
       </c>
       <c r="AS41" t="n">
         <v>0</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG41" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -7916,7 +6166,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -7940,19 +6190,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -8000,10 +6250,10 @@
         <v>0</v>
       </c>
       <c r="AK42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" t="n">
         <v>0</v>
@@ -8025,48 +6275,6 @@
       </c>
       <c r="AS42" t="n">
         <v>0</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG42" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -8095,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -8113,10 +6321,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -8131,10 +6339,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -8197,55 +6405,13 @@
         <v>0</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43" t="n">
         <v>0</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG43" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -8274,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -8304,16 +6470,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -8376,55 +6542,13 @@
         <v>0</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS44" t="n">
         <v>0</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE44" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG44" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -8453,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -8477,10 +6601,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -8492,10 +6616,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -8555,55 +6679,13 @@
         <v>0</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS45" t="n">
         <v>0</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE45" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG45" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -8632,7 +6714,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -8656,19 +6738,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -8716,10 +6798,10 @@
         <v>0</v>
       </c>
       <c r="AK46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" t="n">
         <v>0</v>
@@ -8741,48 +6823,6 @@
       </c>
       <c r="AS46" t="n">
         <v>0</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG46" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -8811,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -8835,10 +6875,10 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -8850,10 +6890,10 @@
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
@@ -8913,55 +6953,13 @@
         <v>0</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS47" t="n">
         <v>0</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG47" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -8990,7 +6988,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -8999,10 +6997,10 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -9029,10 +7027,10 @@
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X48" t="n">
         <v>0</v>
@@ -9098,48 +7096,6 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE48" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9169,10 +7125,10 @@
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -9208,10 +7164,10 @@
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X49" t="n">
         <v>0</v>
@@ -9262,10 +7218,10 @@
         <v>0</v>
       </c>
       <c r="AN49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP49" t="n">
         <v>0</v>
@@ -9278,48 +7234,6 @@
       </c>
       <c r="AS49" t="n">
         <v>0</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC49" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG49" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -9348,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -9378,16 +7292,16 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
@@ -9405,10 +7319,10 @@
         <v>0</v>
       </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -9457,48 +7371,6 @@
       </c>
       <c r="AS50" t="n">
         <v>0</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG50" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -9527,16 +7399,16 @@
         <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -9563,10 +7435,10 @@
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
@@ -9629,55 +7501,13 @@
         <v>0</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS51" t="n">
         <v>0</v>
-      </c>
-      <c r="AT51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ51" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA51" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB51" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC51" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD51" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE51" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF51" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG51" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -9706,16 +7536,16 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -9739,10 +7569,10 @@
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -9790,10 +7620,10 @@
         <v>0</v>
       </c>
       <c r="AK52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52" t="n">
         <v>0</v>
@@ -9815,48 +7645,6 @@
       </c>
       <c r="AS52" t="n">
         <v>0</v>
-      </c>
-      <c r="AT52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ52" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG52" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -9885,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -9894,10 +7682,10 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -9924,10 +7712,10 @@
         <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X53" t="n">
         <v>0</v>
@@ -9978,10 +7766,10 @@
         <v>0</v>
       </c>
       <c r="AN53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP53" t="n">
         <v>0</v>
@@ -9994,48 +7782,6 @@
       </c>
       <c r="AS53" t="n">
         <v>0</v>
-      </c>
-      <c r="AT53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC53" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG53" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -10064,16 +7810,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -10097,10 +7843,10 @@
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -10166,55 +7912,13 @@
         <v>0</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS54" t="n">
         <v>0</v>
-      </c>
-      <c r="AT54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG54" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -10243,7 +7947,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -10261,10 +7965,10 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
@@ -10282,10 +7986,10 @@
         <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X55" t="n">
         <v>0</v>
@@ -10297,10 +8001,10 @@
         <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC55" t="n">
         <v>0</v>
@@ -10352,48 +8056,6 @@
       </c>
       <c r="AS55" t="n">
         <v>0</v>
-      </c>
-      <c r="AT55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG55" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -10422,16 +8084,16 @@
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -10461,10 +8123,10 @@
         <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X56" t="n">
         <v>0</v>
@@ -10512,10 +8174,10 @@
         <v>0</v>
       </c>
       <c r="AM56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO56" t="n">
         <v>0</v>
@@ -10531,48 +8193,6 @@
       </c>
       <c r="AS56" t="n">
         <v>0</v>
-      </c>
-      <c r="AT56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB56" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG56" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -10601,7 +8221,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -10613,10 +8233,10 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -10634,10 +8254,10 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -10703,55 +8323,13 @@
         <v>0</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS57" t="n">
         <v>0</v>
-      </c>
-      <c r="AT57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE57" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG57" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -10780,7 +8358,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -10798,10 +8376,10 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
@@ -10819,10 +8397,10 @@
         <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58" t="n">
         <v>0</v>
@@ -10882,55 +8460,13 @@
         <v>0</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS58" t="n">
         <v>0</v>
-      </c>
-      <c r="AT58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE58" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG58" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -10959,10 +8495,10 @@
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -10992,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -11061,55 +8597,13 @@
         <v>0</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS59" t="n">
         <v>0</v>
-      </c>
-      <c r="AT59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ59" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA59" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB59" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC59" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD59" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE59" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF59" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG59" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -11138,7 +8632,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -11159,10 +8653,10 @@
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -11174,10 +8668,10 @@
         <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
@@ -11240,55 +8734,13 @@
         <v>0</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS60" t="n">
         <v>0</v>
-      </c>
-      <c r="AT60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE60" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG60" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -11317,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -11347,16 +8799,16 @@
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61" t="n">
         <v>0</v>
@@ -11374,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="AB61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -11426,48 +8878,6 @@
       </c>
       <c r="AS61" t="n">
         <v>0</v>
-      </c>
-      <c r="AT61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ61" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA61" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB61" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC61" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD61" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE61" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF61" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG61" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -11496,7 +8906,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -11508,10 +8918,10 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -11535,10 +8945,10 @@
         <v>0</v>
       </c>
       <c r="V62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X62" t="n">
         <v>0</v>
@@ -11598,55 +9008,13 @@
         <v>0</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS62" t="n">
         <v>0</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE62" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG62" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -11675,13 +9043,13 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -11708,10 +9076,10 @@
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -11777,55 +9145,13 @@
         <v>0</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS63" t="n">
         <v>0</v>
-      </c>
-      <c r="AT63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ63" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA63" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB63" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC63" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD63" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE63" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF63" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG63" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -11854,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -11863,10 +9189,10 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -11893,10 +9219,10 @@
         <v>0</v>
       </c>
       <c r="V64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X64" t="n">
         <v>0</v>
@@ -11947,10 +9273,10 @@
         <v>0</v>
       </c>
       <c r="AN64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP64" t="n">
         <v>0</v>
@@ -11963,48 +9289,6 @@
       </c>
       <c r="AS64" t="n">
         <v>0</v>
-      </c>
-      <c r="AT64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC64" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG64" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -12033,10 +9317,10 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -12072,10 +9356,10 @@
         <v>0</v>
       </c>
       <c r="V65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X65" t="n">
         <v>0</v>
@@ -12126,10 +9410,10 @@
         <v>0</v>
       </c>
       <c r="AN65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP65" t="n">
         <v>0</v>
@@ -12142,48 +9426,6 @@
       </c>
       <c r="AS65" t="n">
         <v>0</v>
-      </c>
-      <c r="AT65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC65" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG65" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -12212,7 +9454,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -12221,10 +9463,10 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -12251,10 +9493,10 @@
         <v>0</v>
       </c>
       <c r="V66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X66" t="n">
         <v>0</v>
@@ -12275,10 +9517,10 @@
         <v>0</v>
       </c>
       <c r="AD66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF66" t="n">
         <v>0</v>
@@ -12321,48 +9563,6 @@
       </c>
       <c r="AS66" t="n">
         <v>0</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG66" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -12391,16 +9591,16 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -12427,10 +9627,10 @@
         <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W67" t="n">
         <v>0</v>
@@ -12454,10 +9654,10 @@
         <v>0</v>
       </c>
       <c r="AD67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF67" t="n">
         <v>0</v>
@@ -12500,48 +9700,6 @@
       </c>
       <c r="AS67" t="n">
         <v>0</v>
-      </c>
-      <c r="AT67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG67" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -12570,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -12594,10 +9752,10 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68" t="n">
         <v>0</v>
@@ -12606,10 +9764,10 @@
         <v>0</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W68" t="n">
         <v>0</v>
@@ -12633,10 +9791,10 @@
         <v>0</v>
       </c>
       <c r="AD68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF68" t="n">
         <v>0</v>
@@ -12679,48 +9837,6 @@
       </c>
       <c r="AS68" t="n">
         <v>0</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG68" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -12749,7 +9865,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -12761,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -12785,10 +9901,10 @@
         <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W69" t="n">
         <v>0</v>
@@ -12812,10 +9928,10 @@
         <v>0</v>
       </c>
       <c r="AD69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF69" t="n">
         <v>0</v>
@@ -12858,48 +9974,6 @@
       </c>
       <c r="AS69" t="n">
         <v>0</v>
-      </c>
-      <c r="AT69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW69" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG69" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -12928,7 +10002,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -12949,10 +10023,10 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -12967,10 +10041,10 @@
         <v>0</v>
       </c>
       <c r="V70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X70" t="n">
         <v>0</v>
@@ -13021,10 +10095,10 @@
         <v>0</v>
       </c>
       <c r="AN70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP70" t="n">
         <v>0</v>
@@ -13037,48 +10111,6 @@
       </c>
       <c r="AS70" t="n">
         <v>0</v>
-      </c>
-      <c r="AT70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC70" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG70" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -13107,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -13116,10 +10148,10 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -13140,10 +10172,10 @@
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
@@ -13209,55 +10241,13 @@
         <v>0</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS71" t="n">
         <v>0</v>
-      </c>
-      <c r="AT71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE71" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG71" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -13286,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -13298,10 +10288,10 @@
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -13322,10 +10312,10 @@
         <v>0</v>
       </c>
       <c r="U72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W72" t="n">
         <v>0</v>
@@ -13352,10 +10342,10 @@
         <v>0</v>
       </c>
       <c r="AE72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG72" t="n">
         <v>0</v>
@@ -13395,48 +10385,6 @@
       </c>
       <c r="AS72" t="n">
         <v>0</v>
-      </c>
-      <c r="AT72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG72" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -13465,7 +10413,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -13480,10 +10428,10 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -13501,10 +10449,10 @@
         <v>0</v>
       </c>
       <c r="U73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W73" t="n">
         <v>0</v>
@@ -13522,10 +10470,10 @@
         <v>0</v>
       </c>
       <c r="AB73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD73" t="n">
         <v>0</v>
@@ -13574,48 +10522,6 @@
       </c>
       <c r="AS73" t="n">
         <v>0</v>
-      </c>
-      <c r="AT73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG73" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -13644,7 +10550,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -13656,10 +10562,10 @@
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -13677,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V74" t="n">
         <v>0</v>
@@ -13746,55 +10652,13 @@
         <v>0</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS74" t="n">
         <v>0</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE74" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG74" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -13823,7 +10687,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -13838,10 +10702,10 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -13856,10 +10720,10 @@
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V75" t="n">
         <v>0</v>
@@ -13880,10 +10744,10 @@
         <v>0</v>
       </c>
       <c r="AB75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD75" t="n">
         <v>0</v>
@@ -13932,48 +10796,6 @@
       </c>
       <c r="AS75" t="n">
         <v>0</v>
-      </c>
-      <c r="AT75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG75" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -14002,10 +10824,10 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -14038,10 +10860,10 @@
         <v>0</v>
       </c>
       <c r="U76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W76" t="n">
         <v>0</v>
@@ -14104,55 +10926,13 @@
         <v>0</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS76" t="n">
         <v>0</v>
-      </c>
-      <c r="AT76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE76" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG76" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -14181,7 +10961,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -14190,10 +10970,10 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -14220,10 +11000,10 @@
         <v>0</v>
       </c>
       <c r="V77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X77" t="n">
         <v>0</v>
@@ -14262,10 +11042,10 @@
         <v>0</v>
       </c>
       <c r="AJ77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL77" t="n">
         <v>0</v>
@@ -14290,48 +11070,6 @@
       </c>
       <c r="AS77" t="n">
         <v>0</v>
-      </c>
-      <c r="AT77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ77" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG77" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -14360,7 +11098,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -14378,10 +11116,10 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78" t="n">
         <v>0</v>
@@ -14396,19 +11134,19 @@
         <v>0</v>
       </c>
       <c r="U78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W78" t="n">
         <v>0</v>
       </c>
       <c r="X78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z78" t="n">
         <v>0</v>
@@ -14469,48 +11207,6 @@
       </c>
       <c r="AS78" t="n">
         <v>0</v>
-      </c>
-      <c r="AT78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG78" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -14539,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -14548,10 +11244,10 @@
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -14578,16 +11274,16 @@
         <v>0</v>
       </c>
       <c r="V79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z79" t="n">
         <v>0</v>
@@ -14648,48 +11344,6 @@
       </c>
       <c r="AS79" t="n">
         <v>0</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG79" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -14718,7 +11372,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -14727,10 +11381,10 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -14751,10 +11405,10 @@
         <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V80" t="n">
         <v>0</v>
@@ -14763,10 +11417,10 @@
         <v>0</v>
       </c>
       <c r="X80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z80" t="n">
         <v>0</v>
@@ -14827,48 +11481,6 @@
       </c>
       <c r="AS80" t="n">
         <v>0</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ80" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA80" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB80" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC80" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD80" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE80" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF80" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG80" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -14897,7 +11509,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -14927,25 +11539,25 @@
         <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W81" t="n">
         <v>0</v>
       </c>
       <c r="X81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z81" t="n">
         <v>0</v>
@@ -15006,48 +11618,6 @@
       </c>
       <c r="AS81" t="n">
         <v>0</v>
-      </c>
-      <c r="AT81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG81" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -15076,7 +11646,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -15100,19 +11670,19 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S82" t="n">
         <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V82" t="n">
         <v>0</v>
@@ -15178,55 +11748,13 @@
         <v>0</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS82" t="n">
         <v>0</v>
-      </c>
-      <c r="AT82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE82" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG82" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -15255,7 +11783,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -15279,10 +11807,10 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S83" t="n">
         <v>0</v>
@@ -15291,10 +11819,10 @@
         <v>0</v>
       </c>
       <c r="U83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W83" t="n">
         <v>0</v>
@@ -15357,55 +11885,13 @@
         <v>0</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS83" t="n">
         <v>0</v>
-      </c>
-      <c r="AT83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ83" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA83" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB83" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC83" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD83" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE83" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF83" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG83" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -15434,7 +11920,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -15449,10 +11935,10 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -15470,10 +11956,10 @@
         <v>0</v>
       </c>
       <c r="U84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W84" t="n">
         <v>0</v>
@@ -15536,55 +12022,13 @@
         <v>0</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS84" t="n">
         <v>0</v>
-      </c>
-      <c r="AT84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ84" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA84" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB84" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC84" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD84" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE84" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF84" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG84" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -15613,7 +12057,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -15637,10 +12081,10 @@
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S85" t="n">
         <v>0</v>
@@ -15652,10 +12096,10 @@
         <v>0</v>
       </c>
       <c r="V85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X85" t="n">
         <v>0</v>
@@ -15664,10 +12108,10 @@
         <v>0</v>
       </c>
       <c r="Z85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB85" t="n">
         <v>0</v>
@@ -15722,48 +12166,6 @@
       </c>
       <c r="AS85" t="n">
         <v>0</v>
-      </c>
-      <c r="AT85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ85" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA85" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB85" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC85" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD85" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE85" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF85" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG85" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -15792,7 +12194,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -15804,10 +12206,10 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -15825,10 +12227,10 @@
         <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V86" t="n">
         <v>0</v>
@@ -15843,10 +12245,10 @@
         <v>0</v>
       </c>
       <c r="Z86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB86" t="n">
         <v>0</v>
@@ -15901,48 +12303,6 @@
       </c>
       <c r="AS86" t="n">
         <v>0</v>
-      </c>
-      <c r="AT86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW86" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ86" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA86" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB86" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC86" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD86" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE86" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF86" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG86" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -15971,10 +12331,10 @@
         <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -16007,10 +12367,10 @@
         <v>0</v>
       </c>
       <c r="U87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W87" t="n">
         <v>0</v>
@@ -16022,10 +12382,10 @@
         <v>0</v>
       </c>
       <c r="Z87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB87" t="n">
         <v>0</v>
@@ -16080,48 +12440,6 @@
       </c>
       <c r="AS87" t="n">
         <v>0</v>
-      </c>
-      <c r="AT87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW87" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ87" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA87" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB87" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC87" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD87" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE87" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF87" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG87" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -16150,7 +12468,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -16174,10 +12492,10 @@
         <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S88" t="n">
         <v>0</v>
@@ -16186,10 +12504,10 @@
         <v>0</v>
       </c>
       <c r="U88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W88" t="n">
         <v>0</v>
@@ -16249,58 +12567,16 @@
         <v>0</v>
       </c>
       <c r="AP88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR88" t="n">
         <v>0</v>
       </c>
       <c r="AS88" t="n">
         <v>0</v>
-      </c>
-      <c r="AT88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY88" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ88" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA88" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB88" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC88" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD88" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE88" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF88" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG88" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -16329,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -16338,10 +12614,10 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
@@ -16362,10 +12638,10 @@
         <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V89" t="n">
         <v>0</v>
@@ -16374,10 +12650,10 @@
         <v>0</v>
       </c>
       <c r="X89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z89" t="n">
         <v>0</v>
@@ -16438,48 +12714,6 @@
       </c>
       <c r="AS89" t="n">
         <v>0</v>
-      </c>
-      <c r="AT89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU89" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ89" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA89" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB89" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC89" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD89" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE89" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF89" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG89" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -16508,7 +12742,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -16517,10 +12751,10 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -16547,10 +12781,10 @@
         <v>0</v>
       </c>
       <c r="V90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X90" t="n">
         <v>0</v>
@@ -16586,10 +12820,10 @@
         <v>0</v>
       </c>
       <c r="AI90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK90" t="n">
         <v>0</v>
@@ -16617,48 +12851,6 @@
       </c>
       <c r="AS90" t="n">
         <v>0</v>
-      </c>
-      <c r="AT90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ90" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA90" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB90" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC90" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD90" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE90" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF90" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG90" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -16687,7 +12879,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -16702,10 +12894,10 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P91" t="n">
         <v>0</v>
@@ -16720,10 +12912,10 @@
         <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V91" t="n">
         <v>0</v>
@@ -16783,10 +12975,10 @@
         <v>0</v>
       </c>
       <c r="AO91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ91" t="n">
         <v>0</v>
@@ -16796,48 +12988,6 @@
       </c>
       <c r="AS91" t="n">
         <v>0</v>
-      </c>
-      <c r="AT91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ91" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA91" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB91" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC91" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD91" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE91" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF91" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG91" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -16866,7 +13016,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -16896,13 +13046,13 @@
         <v>0</v>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T92" t="n">
         <v>1</v>
       </c>
       <c r="U92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V92" t="n">
         <v>0</v>
@@ -16947,10 +13097,10 @@
         <v>0</v>
       </c>
       <c r="AJ92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL92" t="n">
         <v>0</v>
@@ -16975,48 +13125,6 @@
       </c>
       <c r="AS92" t="n">
         <v>0</v>
-      </c>
-      <c r="AT92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ92" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA92" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB92" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC92" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD92" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE92" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF92" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG92" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -17045,7 +13153,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -17069,10 +13177,10 @@
         <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S93" t="n">
         <v>0</v>
@@ -17081,10 +13189,10 @@
         <v>0</v>
       </c>
       <c r="U93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W93" t="n">
         <v>0</v>
@@ -17147,55 +13255,13 @@
         <v>0</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS93" t="n">
         <v>0</v>
-      </c>
-      <c r="AT93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ93" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA93" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB93" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC93" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD93" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE93" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF93" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG93" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -17224,7 +13290,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -17236,10 +13302,10 @@
         <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O94" t="n">
         <v>0</v>
@@ -17260,10 +13326,10 @@
         <v>0</v>
       </c>
       <c r="U94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W94" t="n">
         <v>0</v>
@@ -17281,10 +13347,10 @@
         <v>0</v>
       </c>
       <c r="AB94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD94" t="n">
         <v>0</v>
@@ -17333,48 +13399,6 @@
       </c>
       <c r="AS94" t="n">
         <v>0</v>
-      </c>
-      <c r="AT94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ94" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA94" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB94" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC94" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD94" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE94" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF94" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG94" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -17403,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -17421,10 +13445,10 @@
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95" t="n">
         <v>0</v>
@@ -17439,10 +13463,10 @@
         <v>0</v>
       </c>
       <c r="U95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W95" t="n">
         <v>0</v>
@@ -17460,10 +13484,10 @@
         <v>0</v>
       </c>
       <c r="AB95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD95" t="n">
         <v>0</v>
@@ -17512,48 +13536,6 @@
       </c>
       <c r="AS95" t="n">
         <v>0</v>
-      </c>
-      <c r="AT95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW95" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ95" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA95" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB95" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC95" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD95" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE95" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF95" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG95" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -17582,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -17606,10 +13588,10 @@
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S96" t="n">
         <v>0</v>
@@ -17618,10 +13600,10 @@
         <v>0</v>
       </c>
       <c r="U96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W96" t="n">
         <v>0</v>
@@ -17684,55 +13666,13 @@
         <v>0</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS96" t="n">
         <v>0</v>
-      </c>
-      <c r="AT96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ96" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA96" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB96" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC96" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD96" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE96" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF96" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG96" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -17761,7 +13701,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -17770,10 +13710,10 @@
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -17794,10 +13734,10 @@
         <v>0</v>
       </c>
       <c r="T97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V97" t="n">
         <v>0</v>
@@ -17806,10 +13746,10 @@
         <v>0</v>
       </c>
       <c r="X97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z97" t="n">
         <v>0</v>
@@ -17870,48 +13810,6 @@
       </c>
       <c r="AS97" t="n">
         <v>0</v>
-      </c>
-      <c r="AT97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU97" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ97" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA97" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB97" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC97" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD97" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE97" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF97" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG97" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -17940,10 +13838,10 @@
         <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -17973,10 +13871,10 @@
         <v>0</v>
       </c>
       <c r="T98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V98" t="n">
         <v>0</v>
@@ -17997,10 +13895,10 @@
         <v>0</v>
       </c>
       <c r="AB98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD98" t="n">
         <v>0</v>
@@ -18049,48 +13947,6 @@
       </c>
       <c r="AS98" t="n">
         <v>0</v>
-      </c>
-      <c r="AT98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW98" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ98" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA98" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB98" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC98" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD98" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE98" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF98" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG98" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -18119,7 +13975,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -18131,10 +13987,10 @@
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O99" t="n">
         <v>0</v>
@@ -18152,10 +14008,10 @@
         <v>0</v>
       </c>
       <c r="T99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V99" t="n">
         <v>0</v>
@@ -18179,10 +14035,10 @@
         <v>0</v>
       </c>
       <c r="AC99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE99" t="n">
         <v>0</v>
@@ -18228,48 +14084,6 @@
       </c>
       <c r="AS99" t="n">
         <v>0</v>
-      </c>
-      <c r="AT99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ99" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA99" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB99" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC99" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD99" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE99" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF99" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG99" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/encoded_data_final.xlsx
+++ b/encoded_data_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS99"/>
+  <dimension ref="A1:AI99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,117 +546,67 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Recommended Action_FOR ANNUAL FOLLOW UP AND PAP SMEAR IN 3 YEARS</t>
+          <t>Recommended Action_Cleaned_FOR ANNUAL FOLLOW-UP AND PAP SMEAR IN 3 YEARS</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Recommended Action_FOR ANUAL FOLLOW UP AND PAP SMEAR IN 3 YEARS</t>
+          <t>Recommended Action_Cleaned_FOR BIOPSY AND CYTOLOGY (TAH NOT RECOMMENDED)</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Recommended Action_FOR BIOPSY AND CYTOLOGY WITH TAH NOT RECOMMENDED</t>
+          <t>Recommended Action_Cleaned_FOR COLPOSCOPY, BIOPSY, AND CYTOLOGY</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Recommended Action_FOR COLOSCOPY BIOSY, CYTOLOGY</t>
+          <t>Recommended Action_Cleaned_FOR COLPOSCOPY, BIOPSY, AND CYTOLOGY (TAH NOT RECOMMENDED)</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Recommended Action_FOR COLPOSCOPY BIOPSY AND CYTOLOGY+/- TAH</t>
+          <t>Recommended Action_Cleaned_FOR COLPOSCOPY, BIOPSY, CYTOLOGY +/- TAH</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Recommended Action_FOR COLPOSCOPY BIOPSY, CYTOLOGY</t>
+          <t>Recommended Action_Cleaned_FOR COLPOSCOPY, CYTOLOGY, THEN LASER THERAPY</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Recommended Action_FOR COLPOSCOPY BIOPSY, CYTOLOGY +/-TAH</t>
+          <t>Recommended Action_Cleaned_FOR HPV VACCINE AND SEXUAL EDUCATION</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Recommended Action_FOR COLPOSCOPY BIOSPY, CYTOLOGY</t>
+          <t>Recommended Action_Cleaned_FOR HPV VACCINE, LIFESTYLE, AND SEXUAL EDUCATION</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Recommended Action_FOR COLPOSCOPY BIOSPY, CYTOLOGY +/- TAH</t>
+          <t>Recommended Action_Cleaned_FOR LASER THERAPY</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Recommended Action_FOR COLPOSCOPY BIOSY, CYTOLOGY+/- TAH</t>
+          <t>Recommended Action_Cleaned_FOR PAP SMEAR</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Recommended Action_FOR COLPOSCOPY CYTOLOGY AND BIOPSY</t>
+          <t>Recommended Action_Cleaned_FOR REPEAT HPV TESTING ANNUALLY AND PAP SMEAR IN 3 YEARS</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Recommended Action_FOR COLPOSCPY BIOPSY, CYTOLOGY</t>
+          <t>Recommended Action_Cleaned_REPEAT PAP SMEAR IN 3 YEARS</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Recommended Action_FOR COLPOSOCPY BIOPSY, CYTOLOGY WITH TAH NOT RECOMMENDED</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Recommended Action_FOR HPV VACCINATION AND SEXUAL EDUCATION</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Recommended Action_FOR HPV VACCINE AND SEXUAL EDUCATION</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Recommended Action_FOR HPV VACCINE, LIFESTYLE AND SEXUAL EDUCATION</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Recommended Action_FOR LASER THERAPY</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Recommended Action_FOR PAP SMEAR</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Recommended Action_FOR REPEAT HPV TESTING ANNUALLY AND PAP SMEAR IN 3 YEARS</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Recommended Action_FORCOLPOSCOPY, CYTOLOGY THEN LASER THERAPY</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Recommended Action_REPEAT PAP SMEAR IN 3 YEARS</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Recommended Action_REPEAT PAP SMEAR IN 3 YEARS AND FOR HPV VACCINE</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Recommended Action_REPEAT PAP SMEAR IN 3YEARS</t>
+          <t>Recommended Action_Cleaned_REPEAT PAP SMEAR IN 3 YEARS AND FOR HPV VACCINE</t>
         </is>
       </c>
     </row>
@@ -764,37 +714,7 @@
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -883,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -901,36 +821,6 @@
         <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1020,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -1038,36 +928,6 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1160,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -1175,36 +1035,6 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1294,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -1312,36 +1142,6 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1449,37 +1249,7 @@
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1556,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1580,42 +1350,12 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,39 +1460,9 @@
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1836,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -1851,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -1860,36 +1570,6 @@
         <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1964,10 +1644,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -1997,36 +1677,6 @@
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2131,39 +1781,9 @@
         <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2268,39 +1888,9 @@
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2378,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -2387,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -2408,36 +1998,6 @@
         <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2515,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -2524,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -2545,36 +2105,6 @@
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2684,36 +2214,6 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2789,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -2798,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -2819,36 +2319,6 @@
         <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2953,39 +2423,9 @@
         <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3090,39 +2530,9 @@
         <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3227,39 +2637,9 @@
         <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3369,36 +2749,6 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3501,39 +2851,9 @@
         <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3638,39 +2958,9 @@
         <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3775,39 +3065,9 @@
         <v>0</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3897,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -3915,36 +3175,6 @@
         <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -4031,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="n">
         <v>0</v>
@@ -4052,36 +3282,6 @@
         <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4159,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -4168,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
@@ -4189,36 +3389,6 @@
         <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4296,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
@@ -4305,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
         <v>0</v>
@@ -4326,36 +3496,6 @@
         <v>0</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4465,36 +3605,6 @@
       <c r="AI29" t="n">
         <v>0</v>
       </c>
-      <c r="AJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4597,39 +3707,9 @@
         <v>0</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4728,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31" t="n">
         <v>0</v>
@@ -4737,36 +3817,6 @@
         <v>0</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4876,36 +3926,6 @@
       <c r="AI32" t="n">
         <v>0</v>
       </c>
-      <c r="AJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5002,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33" t="n">
         <v>0</v>
@@ -5011,36 +4031,6 @@
         <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5150,36 +4140,6 @@
       <c r="AI34" t="n">
         <v>0</v>
       </c>
-      <c r="AJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5255,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
@@ -5264,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC35" t="n">
         <v>0</v>
@@ -5285,36 +4245,6 @@
         <v>0</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5392,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" t="n">
         <v>0</v>
@@ -5401,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC36" t="n">
         <v>0</v>
@@ -5422,36 +4352,6 @@
         <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5550,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG37" t="n">
         <v>0</v>
@@ -5559,36 +4459,6 @@
         <v>0</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5666,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
@@ -5675,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38" t="n">
         <v>0</v>
@@ -5696,36 +4566,6 @@
         <v>0</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5824,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG39" t="n">
         <v>0</v>
@@ -5833,36 +4673,6 @@
         <v>0</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5940,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
@@ -5967,39 +4777,9 @@
         <v>0</v>
       </c>
       <c r="AH40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6098,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG41" t="n">
         <v>0</v>
@@ -6107,36 +4887,6 @@
         <v>0</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6226,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -6244,36 +4994,6 @@
         <v>0</v>
       </c>
       <c r="AI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6378,39 +5098,9 @@
         <v>0</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6515,39 +5205,9 @@
         <v>0</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6652,39 +5312,9 @@
         <v>0</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6774,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -6792,36 +5422,6 @@
         <v>0</v>
       </c>
       <c r="AI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6926,39 +5526,9 @@
         <v>0</v>
       </c>
       <c r="AH47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7063,40 +5633,10 @@
         <v>0</v>
       </c>
       <c r="AH48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI48" t="n">
         <v>0</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -7194,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG49" t="n">
         <v>0</v>
@@ -7203,36 +5743,6 @@
         <v>0</v>
       </c>
       <c r="AI49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7310,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="Y50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z50" t="n">
         <v>0</v>
@@ -7319,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="AB50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC50" t="n">
         <v>0</v>
@@ -7340,36 +5850,6 @@
         <v>0</v>
       </c>
       <c r="AI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7474,39 +5954,9 @@
         <v>0</v>
       </c>
       <c r="AH51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7596,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -7614,36 +6064,6 @@
         <v>0</v>
       </c>
       <c r="AI52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7742,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG53" t="n">
         <v>0</v>
@@ -7751,36 +6171,6 @@
         <v>0</v>
       </c>
       <c r="AI53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7885,39 +6275,9 @@
         <v>0</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7998,10 +6358,10 @@
         <v>0</v>
       </c>
       <c r="Z55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB55" t="n">
         <v>0</v>
@@ -8025,36 +6385,6 @@
         <v>0</v>
       </c>
       <c r="AI55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8150,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="AE56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF56" t="n">
         <v>0</v>
@@ -8162,36 +6492,6 @@
         <v>0</v>
       </c>
       <c r="AI56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8296,39 +6596,9 @@
         <v>0</v>
       </c>
       <c r="AH57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8433,39 +6703,9 @@
         <v>0</v>
       </c>
       <c r="AH58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8570,39 +6810,9 @@
         <v>0</v>
       </c>
       <c r="AH59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8707,39 +6917,9 @@
         <v>0</v>
       </c>
       <c r="AH60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ60" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8817,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="Y61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z61" t="n">
         <v>0</v>
@@ -8826,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="AB61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC61" t="n">
         <v>0</v>
@@ -8847,36 +7027,6 @@
         <v>0</v>
       </c>
       <c r="AI61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8981,39 +7131,9 @@
         <v>0</v>
       </c>
       <c r="AH62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9118,39 +7238,9 @@
         <v>0</v>
       </c>
       <c r="AH63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9249,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="AF64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG64" t="n">
         <v>0</v>
@@ -9258,36 +7348,6 @@
         <v>0</v>
       </c>
       <c r="AI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9386,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="AF65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG65" t="n">
         <v>0</v>
@@ -9395,36 +7455,6 @@
         <v>0</v>
       </c>
       <c r="AI65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9502,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="Y66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z66" t="n">
         <v>0</v>
@@ -9517,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="AD66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE66" t="n">
         <v>0</v>
@@ -9532,36 +7562,6 @@
         <v>0</v>
       </c>
       <c r="AI66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9639,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="Y67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z67" t="n">
         <v>0</v>
@@ -9654,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="AD67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE67" t="n">
         <v>0</v>
@@ -9669,36 +7669,6 @@
         <v>0</v>
       </c>
       <c r="AI67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9776,7 +7746,7 @@
         <v>0</v>
       </c>
       <c r="Y68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z68" t="n">
         <v>0</v>
@@ -9791,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="AD68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE68" t="n">
         <v>0</v>
@@ -9806,36 +7776,6 @@
         <v>0</v>
       </c>
       <c r="AI68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9913,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="Y69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z69" t="n">
         <v>0</v>
@@ -9928,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="AD69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE69" t="n">
         <v>0</v>
@@ -9943,36 +7883,6 @@
         <v>0</v>
       </c>
       <c r="AI69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10071,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="AF70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG70" t="n">
         <v>0</v>
@@ -10080,36 +7990,6 @@
         <v>0</v>
       </c>
       <c r="AI70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10214,39 +8094,9 @@
         <v>0</v>
       </c>
       <c r="AH71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10330,7 +8180,7 @@
         <v>0</v>
       </c>
       <c r="AA72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB72" t="n">
         <v>0</v>
@@ -10342,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="AE72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF72" t="n">
         <v>0</v>
@@ -10354,36 +8204,6 @@
         <v>0</v>
       </c>
       <c r="AI72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10461,7 +8281,7 @@
         <v>0</v>
       </c>
       <c r="Y73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z73" t="n">
         <v>0</v>
@@ -10470,7 +8290,7 @@
         <v>0</v>
       </c>
       <c r="AB73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC73" t="n">
         <v>0</v>
@@ -10491,36 +8311,6 @@
         <v>0</v>
       </c>
       <c r="AI73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10625,39 +8415,9 @@
         <v>0</v>
       </c>
       <c r="AH74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10735,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="Y75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z75" t="n">
         <v>0</v>
@@ -10744,7 +8504,7 @@
         <v>0</v>
       </c>
       <c r="AB75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC75" t="n">
         <v>0</v>
@@ -10765,36 +8525,6 @@
         <v>0</v>
       </c>
       <c r="AI75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10899,39 +8629,9 @@
         <v>0</v>
       </c>
       <c r="AH76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ76" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11021,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="AC77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD77" t="n">
         <v>0</v>
@@ -11039,36 +8739,6 @@
         <v>0</v>
       </c>
       <c r="AI77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11140,10 +8810,10 @@
         <v>0</v>
       </c>
       <c r="W78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y78" t="n">
         <v>0</v>
@@ -11176,36 +8846,6 @@
         <v>0</v>
       </c>
       <c r="AI78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11277,10 +8917,10 @@
         <v>1</v>
       </c>
       <c r="W79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y79" t="n">
         <v>0</v>
@@ -11313,36 +8953,6 @@
         <v>0</v>
       </c>
       <c r="AI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11414,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="W80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y80" t="n">
         <v>0</v>
@@ -11450,36 +9060,6 @@
         <v>0</v>
       </c>
       <c r="AI80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11551,10 +9131,10 @@
         <v>0</v>
       </c>
       <c r="W81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y81" t="n">
         <v>0</v>
@@ -11587,36 +9167,6 @@
         <v>0</v>
       </c>
       <c r="AI81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11721,39 +9271,9 @@
         <v>0</v>
       </c>
       <c r="AH82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11858,39 +9378,9 @@
         <v>0</v>
       </c>
       <c r="AH83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11995,39 +9485,9 @@
         <v>0</v>
       </c>
       <c r="AH84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12105,10 +9565,10 @@
         <v>0</v>
       </c>
       <c r="Y85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA85" t="n">
         <v>0</v>
@@ -12135,36 +9595,6 @@
         <v>0</v>
       </c>
       <c r="AI85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12242,10 +9672,10 @@
         <v>0</v>
       </c>
       <c r="Y86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA86" t="n">
         <v>0</v>
@@ -12272,36 +9702,6 @@
         <v>0</v>
       </c>
       <c r="AI86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12379,10 +9779,10 @@
         <v>0</v>
       </c>
       <c r="Y87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA87" t="n">
         <v>0</v>
@@ -12409,36 +9809,6 @@
         <v>0</v>
       </c>
       <c r="AI87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12525,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="AB88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC88" t="n">
         <v>0</v>
@@ -12546,36 +9916,6 @@
         <v>0</v>
       </c>
       <c r="AI88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP88" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12647,10 +9987,10 @@
         <v>0</v>
       </c>
       <c r="W89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y89" t="n">
         <v>0</v>
@@ -12683,36 +10023,6 @@
         <v>0</v>
       </c>
       <c r="AI89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12796,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="AA90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB90" t="n">
         <v>0</v>
@@ -12820,36 +10130,6 @@
         <v>0</v>
       </c>
       <c r="AI90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12951,42 +10231,12 @@
         <v>0</v>
       </c>
       <c r="AG91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH91" t="n">
         <v>0</v>
       </c>
       <c r="AI91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO91" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13076,7 +10326,7 @@
         <v>0</v>
       </c>
       <c r="AC92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD92" t="n">
         <v>0</v>
@@ -13094,36 +10344,6 @@
         <v>0</v>
       </c>
       <c r="AI92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ92" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13228,39 +10448,9 @@
         <v>0</v>
       </c>
       <c r="AH93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ93" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13338,7 +10528,7 @@
         <v>0</v>
       </c>
       <c r="Y94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z94" t="n">
         <v>0</v>
@@ -13347,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="AB94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC94" t="n">
         <v>0</v>
@@ -13368,36 +10558,6 @@
         <v>0</v>
       </c>
       <c r="AI94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13475,7 +10635,7 @@
         <v>0</v>
       </c>
       <c r="Y95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z95" t="n">
         <v>0</v>
@@ -13484,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AB95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC95" t="n">
         <v>0</v>
@@ -13505,36 +10665,6 @@
         <v>0</v>
       </c>
       <c r="AI95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13639,39 +10769,9 @@
         <v>0</v>
       </c>
       <c r="AH96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ96" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13743,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="W97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y97" t="n">
         <v>0</v>
@@ -13779,36 +10879,6 @@
         <v>0</v>
       </c>
       <c r="AI97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13886,7 +10956,7 @@
         <v>0</v>
       </c>
       <c r="Y98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z98" t="n">
         <v>0</v>
@@ -13895,7 +10965,7 @@
         <v>0</v>
       </c>
       <c r="AB98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC98" t="n">
         <v>0</v>
@@ -13916,36 +10986,6 @@
         <v>0</v>
       </c>
       <c r="AI98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14029,13 +11069,13 @@
         <v>0</v>
       </c>
       <c r="AA99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB99" t="n">
         <v>0</v>
       </c>
       <c r="AC99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD99" t="n">
         <v>0</v>
@@ -14053,36 +11093,6 @@
         <v>0</v>
       </c>
       <c r="AI99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS99" t="n">
         <v>0</v>
       </c>
     </row>
